--- a/CNN-Output/result_sumary.xlsx
+++ b/CNN-Output/result_sumary.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DEEP_MLP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9867360520890267</v>
+        <v>0.8449423983172702</v>
       </c>
       <c r="D2" t="n">
-        <v>1305.505004882812</v>
+        <v>4463.634765625</v>
       </c>
       <c r="E2" t="n">
-        <v>798.7303466796875</v>
+        <v>3227.035888671875</v>
       </c>
     </row>
     <row r="3">
@@ -489,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DEEP_MLP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5696859761856828</v>
+        <v>0.4794078041595492</v>
       </c>
       <c r="D3" t="n">
-        <v>8288.1279296875</v>
+        <v>9116.1728515625</v>
       </c>
       <c r="E3" t="n">
-        <v>4873.08984375</v>
+        <v>5450.28369140625</v>
       </c>
     </row>
     <row r="4">
@@ -510,17 +510,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DEEP_MLP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9197055026964545</v>
+        <v>0.8084030048322928</v>
       </c>
       <c r="D4" t="n">
-        <v>3212.070068359375</v>
+        <v>4961.7685546875</v>
       </c>
       <c r="E4" t="n">
-        <v>2158.9296875</v>
+        <v>4005.63623046875</v>
       </c>
     </row>
     <row r="5">
@@ -531,17 +531,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DEEP_MLP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4562442365463577</v>
+        <v>0.5056838478793924</v>
       </c>
       <c r="D5" t="n">
-        <v>9316.7763671875</v>
+        <v>8883.1328125</v>
       </c>
       <c r="E5" t="n">
-        <v>5626.35595703125</v>
+        <v>5777.29736328125</v>
       </c>
     </row>
   </sheetData>
